--- a/US003 - Create Motor Policy.xlsx
+++ b/US003 - Create Motor Policy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hnguyen442\eclipse-workspace\DemoClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA5A76-2D1C-49FE-9E5D-0C066DDBFF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6618ABEC-ADED-4623-98E8-9B7AB25B4EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="739" firstSheet="1" activeTab="1" xr2:uid="{CE9A325B-E5FB-4AE1-A33B-70AC8838E9BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="933" firstSheet="1" activeTab="2" xr2:uid="{CE9A325B-E5FB-4AE1-A33B-70AC8838E9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Amendment History" sheetId="2" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <sheet name="TC-19" sheetId="20" r:id="rId21"/>
     <sheet name="TC-20" sheetId="21" r:id="rId22"/>
     <sheet name="TC-21" sheetId="22" r:id="rId23"/>
+    <sheet name="TC-22" sheetId="25" r:id="rId24"/>
+    <sheet name="TC-23" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>Version</t>
   </si>
@@ -126,114 +128,54 @@
     <t>TC-02</t>
   </si>
   <si>
-    <t>Check response when a First Name is Empty and Save Button is pressed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create unsuccessful client information and Error message is displayed. </t>
   </si>
   <si>
     <t>TC-03</t>
   </si>
   <si>
-    <t>Check response when a Last Name is Empty and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-04</t>
   </si>
   <si>
-    <t>Check response when a Identity Number is Empty and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-05</t>
   </si>
   <si>
-    <t>Check response when a Date of Birth is Empty and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-06</t>
   </si>
   <si>
-    <t>Check response when a Address is Empty and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-07</t>
   </si>
   <si>
-    <t>Check response when a First Name longer than 60 and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-08</t>
   </si>
   <si>
-    <t>Check response when a First Name have special characters and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-09</t>
   </si>
   <si>
-    <t>Check response when a First Name have number characters and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-10</t>
   </si>
   <si>
-    <t>Check response when a Last Name longer than 60 and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>1. Last Name = Nguyennnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnnn</t>
-  </si>
-  <si>
     <t>TC-11</t>
   </si>
   <si>
-    <t>Check response when a Last Name have special characters and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>1. Last Name = Nguyen!</t>
-  </si>
-  <si>
     <t>TC-12</t>
   </si>
   <si>
-    <t>Check response when a Last Name have number characters and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>1. Last Name = Nguyen123</t>
-  </si>
-  <si>
     <t>TC-13</t>
   </si>
   <si>
-    <t>Check response when a Address longer than 120 and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-14</t>
   </si>
   <si>
-    <t>Check response when a Address have special characters and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-15</t>
   </si>
   <si>
-    <t>Check response when a Identity Numberless than 0 and Save Button is pressed</t>
-  </si>
-  <si>
-    <t>1. Identity Number = -1</t>
-  </si>
-  <si>
     <t>TC-16</t>
   </si>
   <si>
-    <t>Check response when a Date of Birth is future date and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-17</t>
   </si>
   <si>
-    <t>Check response when create client Identity Numberless exists and Save Button is pressed</t>
-  </si>
-  <si>
     <t>TC-18</t>
   </si>
   <si>
@@ -243,145 +185,7 @@
     <t>Hai Nguyen / 18-Aug/22</t>
   </si>
   <si>
-    <t>1. First Name = Haiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiiii</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">1. Go to site </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">http://localhost:8080/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2. Enter First Name
-3. Enter Last Name
-4. Enter Identity Number
-5. Select Date of Birth
-6. Select Gender
-7. Select Marital Status
-8. Select Country
-9. Enter Address
-10. Click Save
-</t>
-    </r>
-  </si>
-  <si>
-    <t>1. First Name = Hai
-2. Last Name = Nguyen
-3. Identity Number = Empty 
-4. Date of Birth = 26/06/2000
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = 21 Duong 20,KP 1,P.Long Thanh My</t>
-  </si>
-  <si>
-    <t>1. First Name = Hai!</t>
-  </si>
-  <si>
-    <t>1. First Name = Hai123</t>
-  </si>
-  <si>
-    <t>1. Go to site http://localhost:8080/
-2. Enter First Name
-3. Click Save</t>
-  </si>
-  <si>
-    <t>1. Go to site http://localhost:8080/
-2. Enter Last Name
-3. Click Save</t>
-  </si>
-  <si>
-    <t>1. Go to site http://localhost:8080/
-2. Enter Identity Number
-3. Click Save</t>
-  </si>
-  <si>
-    <t>1. Go to site http://localhost:8080/
-2. Enter Date of Birth
-3. Click Save</t>
-  </si>
-  <si>
     <t>check response when not input</t>
-  </si>
-  <si>
-    <t>1. First Name = empty
-2. Last Name = empty
-3. Identity Number = empty
-4. Date of Birth = empty
-5. Gender = empty
-6. Marital Status = empty
-7. Country = empty
-8. Address = empty</t>
-  </si>
-  <si>
-    <t>1. First Name = Empty 
-2. Last Name = Nguyen
-3. Identity Number = 123456
-4. Date of Birth = 26/06/2000
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = 21 Duong 20,KP 1,P.Long Thanh My</t>
-  </si>
-  <si>
-    <t>1. First Name = Hai
-2. Last Name = Empty 
-3. Identity Number = 123456
-4. Date of Birth = 26/06/2000
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = 21 Duong 20,KP 1,P.Long Thanh My</t>
-  </si>
-  <si>
-    <t>1. First Name = Hai
-2. Last Name = Nguyen
-3. Identity Number = 123456
-4. Date of Birth = Empty 
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = 21 Duong 20,KP 1,P.Long Thanh My</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. First Name = Hai
-2. Last Name = Nguyen
-3. Identity Number = 123456
-4. Date of Birth = 26/06/2000
-5. Gender = Male
-6. Marital Status = Single
-7. Country = Viet Nam
-8. Address = Empty </t>
-  </si>
-  <si>
-    <t>1. Identity Number = 123456</t>
-  </si>
-  <si>
-    <t>1. Address  =Quan9!</t>
-  </si>
-  <si>
-    <t>1. Address  =1aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa 1aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa 1aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>1.Date of Birth = 08/27/2022</t>
   </si>
   <si>
     <r>
@@ -422,33 +226,282 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">. Enter Inception Date
-2. Enter Expiry Date
-3. Enter Policy Owner
-4. Select Engine No
-5. Select Chassis No
-6. Select Vehicle Registration No
-7. Select Billing Currency
-8. Enter Sum Insured
-9. Enter Rate
-</t>
-    </r>
+    <t>1. Inception Date = 20/08/2022
+2. Expiry Date = 24/08/2022
+3. Policy Owner= empty
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022
+2. Expiry Date = 24/08/2022
+3. Policy Owner= ABC
+4. Engine No = empty
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022
+2. Expiry Date = 24/08/2022
+3. Policy Owner= ABC
+4. Engine No = ABC
+5. Chassis No = empty
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022
+2. Expiry Date = 24/08/2022
+3. Policy Owner= ABC
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = empty
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022
+2. Expiry Date = 24/08/2022
+3. Policy Owner= ABC
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = empty
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022
+2. Expiry Date = 24/08/2022
+3. Policy Owner= ABC
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = empty
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022
+2. Expiry Date = 24/08/2022
+3. Policy Owner= ABC
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = empty</t>
+  </si>
+  <si>
+    <t>Check response when a Inception Date is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Expiry Date is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Engine No is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Policy Owner is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a chassis No is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Vehcile Registration No is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Billing Currency is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Sum Insured is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Rate is Empty and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022 
+2. Expiry Date = 24/08/2022
+3. Policy Owner= CUS00005
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>1. Inception Date = Empty 
+2. Expiry Date = 24/08/2022
+3. Policy Owner= CUS00005
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022
+2. Expiry Date = empty
+3. Policy Owner= CUS00005
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>Check response when a Expiry Dateis less than Inception Date and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Go to site http://localhost:8080/
+2. Enter Iinception Date
+3. Enten Expiry Date</t>
+  </si>
+  <si>
+    <t>1. Inception Date = 20/08/2022
+2.Expiry Date = 18/08/2022</t>
+  </si>
+  <si>
+    <t>Check response when a Policy Owner doesn't exists and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Policy Owner= CUS00000</t>
+  </si>
+  <si>
+    <t>1. Go to site http://localhost:8080/
+2. Enter Policy Owner
+3. Click Save</t>
+  </si>
+  <si>
+    <t>Check response when a Policy Owner entered less or more than 8 characters and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Policy Owner= CUS000000 or CUS000</t>
+  </si>
+  <si>
+    <t>1. Policy Owner= CUS0000!</t>
+  </si>
+  <si>
+    <t>Check response when a Policy Owner have special characters and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Engine No have special characters and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Chassis No have special characters and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>Check response when a Vehicle Registration No have special characters and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Engine No = ABC!</t>
+  </si>
+  <si>
+    <t>1. Chassis No = ABC!</t>
+  </si>
+  <si>
+    <t>1.Vehicle Registration No = ABC!</t>
+  </si>
+  <si>
+    <t>1. Go to site  http://localhost:8080/motor
+2. Enter Vehicle Registration No
+3. Click Save</t>
+  </si>
+  <si>
+    <t>1. Go to site http://localhost:8080/
+2. Enter Chassis No
+3. Click Save</t>
+  </si>
+  <si>
+    <t>1. Go to site http://localhost:8080/
+2. Enter Engine No
+3. Click Save</t>
+  </si>
+  <si>
+    <t>1. Inception Date = empty
+2. Expiry Date = 24/08/2022
+3. Policy Owner= CUS00005
+4. Engine No = ABC
+5. Chassis No = ABC
+6. Vehicle Registration No = ABC
+7. Billing Currency = VND - Vietnam Dong
+8. Sum Insured = 1000000
+9. Rate = 0.5</t>
+  </si>
+  <si>
+    <t>TC-19</t>
+  </si>
+  <si>
+    <t>Check response when a Sum Insured have negative number and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Sum Insured = -1000000</t>
+  </si>
+  <si>
+    <t>TC-20</t>
+  </si>
+  <si>
+    <t>Check response when a Rate have negative number and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Go to site http://localhost:8080/motor
+2. Enter Sum Insured
+3. Click Save</t>
+  </si>
+  <si>
+    <t>1. Go to site http://localhost:8080/motor
+2. Enter Rate
+3. Click Save</t>
+  </si>
+  <si>
+    <t>1. Rate = -0.5</t>
+  </si>
+  <si>
+    <t>TC-21</t>
+  </si>
+  <si>
+    <t>Check response when a Sum Insured enter number large than 17 character number and Save Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Sum Insured =100000000000000000.003</t>
+  </si>
+  <si>
+    <t>1. Rate = 77777777.666666</t>
+  </si>
+  <si>
+    <t>TC-22</t>
+  </si>
+  <si>
+    <t>TC-23</t>
+  </si>
+  <si>
+    <t>Check response when enter Sum Insured and Rate and Refresh Button is pressed</t>
+  </si>
+  <si>
+    <t>1. Go to site http://localhost:8080/motor
+2. Enter Rate
+3.Enter Sum Insured
+4. Click Refresh</t>
+  </si>
+  <si>
+    <t>1. Sum Insured = 1000000
+2. Rate = 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual Premium and Posted Premium are displayed. </t>
   </si>
 </sst>
 </file>
@@ -458,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +574,12 @@
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -571,7 +630,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,9 +686,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,10 +695,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,115 +725,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6663</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>173481</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFF5542-E8CD-9CC5-9B22-6D502DC53766}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6663" y="0"/>
-          <a:ext cx="16203155" cy="10079481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>110836</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>25935</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>360218</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>178764</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6033E3-8C23-422D-BCB8-6BFC39354DF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="110836" y="10112044"/>
-          <a:ext cx="16098982" cy="7717411"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>239945</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106925</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2553</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>127622</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B0D313-1C7E-EF86-F925-083099E962A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCCC2F42-8B7B-4C71-89DA-B9CABF730711}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -794,7 +757,51 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13041545" cy="1752845"/>
+          <a:ext cx="18290553" cy="8592749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2553</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>60554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86344A20-687D-45B2-A809-BEC3CA9A2632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8686799"/>
+          <a:ext cx="18290553" cy="5782482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -806,7 +813,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -816,17 +823,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>116103</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>21188</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>258913</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27566E6-A4A1-E8B8-B53C-13780ADBF4E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D547CFB8-1D44-4DEE-A1DC-36910368B16B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12917703" cy="1667108"/>
+          <a:ext cx="12450913" cy="1495634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,7 +862,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -865,17 +872,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>325682</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>40240</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>497071</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137511</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E09F2F-52C4-1C5F-299B-9E7B7B27FCFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54DFFD7C-DFAB-45CA-91DA-8EC8ECEC64D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -892,7 +899,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13127282" cy="1686160"/>
+          <a:ext cx="12689071" cy="2514951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -904,7 +911,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -915,16 +922,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>516123</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>49767</xdr:rowOff>
+      <xdr:colOff>382755</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C81D7166-B0D9-79B7-649F-13DCE5ACC0D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AB7DE8-BA8D-4B69-90E7-38F9A002F42A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,7 +948,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12708123" cy="1695687"/>
+          <a:ext cx="12574755" cy="1590897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -953,7 +960,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -963,8 +970,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>49418</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>458965</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>156436</xdr:rowOff>
     </xdr:to>
@@ -973,7 +980,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1555B5-C2FA-3EE8-0D67-996B65DA58F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA96D60-82BA-4747-B4F6-92DD2B085D9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -990,7 +997,100 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12851018" cy="1619476"/>
+          <a:ext cx="12650965" cy="1619476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>282287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D81BF4-44E7-4189-94B7-82F733810CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="1546860"/>
+          <a:ext cx="12466667" cy="1561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>335123</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0A255D-3EC4-4644-9414-10760D740E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12527123" cy="1600423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,16 +1113,114 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>478018</xdr:colOff>
+      <xdr:colOff>335123</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C448BD-ABE6-4F5D-BF2F-02C3682B19BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12527123" cy="1562318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>373229</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D7E1B8-3023-4FEA-BE72-F3325941C27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12565229" cy="1552792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>340858</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85340A74-B65D-6ACD-9381-E6DC3E31BAA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107E74CC-1766-44E2-A6B7-D2BED6559EA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1249,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1061,17 +1259,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>398400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>30270</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>393047</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D082C10-A6A5-B3F3-8AE7-9309EE2C031E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F5F555-7EAF-42CF-9F70-D1880BF89566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,105 +1286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13200000" cy="1676190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>470414</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>135504</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC34406-40A0-BD66-7ACC-F68E95A014CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240" y="0"/>
-          <a:ext cx="12784334" cy="1781424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>171719</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C9B7EF-92D8-4AD3-AEC0-1E7FD8EE25E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="13582919" cy="6800850"/>
+          <a:ext cx="18071447" cy="8716591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,22 +1298,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>11684</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>393047</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8BAAC3-EE1D-9F35-E469-1C1E3264CBE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914F9A0A-633B-4754-B3A4-FEFE194855B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,8 +1329,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="6842760"/>
-          <a:ext cx="13544550" cy="6503924"/>
+          <a:off x="0" y="8708571"/>
+          <a:ext cx="18071447" cy="9069066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>383521</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>156946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C76780-2E5C-49FC-8A25-28CDBB09EF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17743714"/>
+          <a:ext cx="18061921" cy="3324689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,7 +1386,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1252,17 +1396,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>258657</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>411334</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>146910</xdr:rowOff>
+      <xdr:rowOff>32594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F04722-944F-1D61-4D4B-A4E99C91E4BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDAC993-F992-4063-8119-9ABC17454099}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10621857" cy="1609950"/>
+          <a:ext cx="12603334" cy="1495634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,7 +1435,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1301,17 +1445,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>87183</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>468492</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>32594</xdr:rowOff>
+      <xdr:rowOff>146910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AD1706-0940-82EF-A5B9-CCD90D80FCDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D90921B-E913-4620-B072-C3DE8177B3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10450383" cy="1495634"/>
+          <a:ext cx="12660492" cy="1609950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1340,7 +1484,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1350,17 +1494,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>325342</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>497071</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>61173</xdr:rowOff>
+      <xdr:rowOff>108804</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC0F916-600E-5900-3696-5CD2A976DD27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8BE4A4-9FAA-4CAA-A0B7-C3512EAFF046}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1521,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10688542" cy="1524213"/>
+          <a:ext cx="12689071" cy="1571844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1389,7 +1533,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1401,15 +1545,15 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>468492</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>156436</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>173609</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4403C209-D27A-AFAE-18E9-75F3305867F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C992E528-77E6-49B9-A443-62549CFD1A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12660492" cy="1619476"/>
+          <a:ext cx="12660492" cy="1819529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,7 +1582,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1448,17 +1592,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11313</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85992</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>373229</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDF6172-4BD3-9C8F-AFBC-F931B69787F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87976897-BEE2-43C3-AE70-5CF1321B95D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12812913" cy="1914792"/>
+          <a:ext cx="12565229" cy="1752845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,7 +1631,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1498,16 +1642,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>392366</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>11661</xdr:rowOff>
+      <xdr:colOff>420945</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02028C14-2C00-6148-48C1-34199889888C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46959750-C422-474B-8890-0D0DB746ECD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13193966" cy="1657581"/>
+          <a:ext cx="13222545" cy="4153480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,7 +1680,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1547,16 +1691,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>601860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>135504</xdr:rowOff>
+      <xdr:colOff>220807</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>118331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B16D2CB-2E3A-BC26-2E31-9BD2CCF3915A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F85C86-0CA6-47D3-9416-727A4207EF7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12793860" cy="1781424"/>
+          <a:ext cx="12412807" cy="1581371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1585,7 +1729,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1596,16 +1740,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>487544</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99278</xdr:rowOff>
+      <xdr:colOff>87439</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>78346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F903D726-3AFF-20BB-8791-C9AFE067C96B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CE0360-901A-4E42-B797-FAEFF6D807F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1766,252 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12679544" cy="1562318"/>
+          <a:ext cx="12279439" cy="1724266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>325597</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54CB3E6A-0DA6-4FC0-9450-BD6EE0DF50BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12517597" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>325597</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>125977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE60C66-AC41-431D-899D-19D0EEC4EA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12517597" cy="1771897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>277965</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F5B6AB-D33D-44CF-962E-A193C41E4E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12469965" cy="2000529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>277965</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1621A5-88F5-4449-A8BE-078B6A7CE5E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12469965" cy="2000529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>268439</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>70699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017F798B-5763-481E-9A35-BAD7F6CC92D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12460439" cy="1533739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1977,10 +2366,10 @@
         <v>44791</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
@@ -2054,7 +2443,9 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2082,7 +2473,9 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2155,15 +2548,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="36.77734375" style="18" customWidth="1"/>
     <col min="4" max="4" width="47.109375" style="18" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
@@ -2210,10 +2603,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>19</v>
@@ -2226,388 +2619,388 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="F6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="185.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="191.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="198.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="24" t="s">
+      <c r="D19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G19" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="24" t="s">
+    <row r="20" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="24" t="s">
+      <c r="C20" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G20" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="24" t="s">
+    <row r="21" spans="1:7" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G21" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+    <row r="22" spans="1:7" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="C22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="D22" s="19" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>20</v>
@@ -2616,115 +3009,186 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+    <row r="23" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
+      <c r="B32" s="22"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
+      <c r="B33" s="22"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
+      <c r="B34" s="22"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
+      <c r="B35" s="22"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
+      <c r="B36" s="22"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
+      <c r="B37" s="22"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
+      <c r="B38" s="22"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
+      <c r="B39" s="22"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
+      <c r="B40" s="22"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
+      <c r="B41" s="22"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
+      <c r="B43" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A5" location="'TC-01'!A1" display="TC-01" xr:uid="{5BE3B563-365E-4B72-B5F8-938C8125D68C}"/>
     <hyperlink ref="A6" location="'TC-02'!A1" display="TC-02" xr:uid="{0E968C32-0214-4F0C-A817-194696A898C7}"/>
@@ -2744,6 +3208,11 @@
     <hyperlink ref="A19" location="'TC-15'!A1" display="TC-15" xr:uid="{60197EBB-E808-46B9-B87B-00CD91F31B96}"/>
     <hyperlink ref="A20" location="'TC-16'!A1" display="TC-16" xr:uid="{24A24B55-0AEF-4424-B60A-78FB8B23BD9D}"/>
     <hyperlink ref="A21" location="'TC-17'!A1" display="TC-17" xr:uid="{0106B6A8-3943-477C-92EB-21A64BED7BDC}"/>
+    <hyperlink ref="A23" location="'TC-19'!A1" display="TC-19" xr:uid="{17E8A0A7-C2C8-45D4-AC16-8F8019CC97DC}"/>
+    <hyperlink ref="A24" location="'TC-20'!A1" display="TC-20" xr:uid="{C717330A-4B7C-474B-BCAF-043833FA605C}"/>
+    <hyperlink ref="A25" location="'TC-21'!A1" display="TC-21" xr:uid="{3A3CFAEE-6D95-4AE3-B137-071BE8E2C5E4}"/>
+    <hyperlink ref="A26" location="'TC-22'!A1" display="TC-22" xr:uid="{20595946-C059-4365-BF6C-3A40DD82A0A8}"/>
+    <hyperlink ref="A27" location="'TC-23'!A1" display="TC-23" xr:uid="{D161AE23-EFE2-48C5-BF12-33806F54704B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2754,7 +3223,9 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG102" sqref="AG102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2768,11 +3239,14 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2786,6 +3260,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2799,6 +3274,35 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A53AAE-0D34-4E68-91A0-D177CF5F5062}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05ECFB9-8189-40DC-8166-790DE5992A42}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2807,7 +3311,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AJ46" sqref="AJ46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2835,9 +3341,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2903,6 +3407,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068073968EC026B4DBE87DD3E85715D31" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2f7a1f886a19eb4d4656104787b0b142">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4928f78-8817-462b-a38c-b730d253bc3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725f0d8d56db4f087920445967312631" ns2:_="">
     <xsd:import namespace="c4928f78-8817-462b-a38c-b730d253bc3b"/>
@@ -3034,15 +3547,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3050,6 +3554,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7895F2C8-24F8-42C3-B912-D93CF7F8D017}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FCA5937-B1F9-4A87-B786-D97E6524A9F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3067,14 +3579,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7895F2C8-24F8-42C3-B912-D93CF7F8D017}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA8786B0-2300-4E92-B982-B5A20D07E2F4}">
   <ds:schemaRefs>
